--- a/DataSheets/section.xlsx
+++ b/DataSheets/section.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{082D16AC-8511-48A4-ABB7-2095195AD472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA30AA1-65BD-4238-B28E-B9DA7D7B8DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0ED13E95-8516-4C16-8DBF-AE53EE052614}"/>
   </bookViews>
@@ -402,19 +402,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Biome"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,16 +431,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,40 +755,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417EED2E-BEF8-489B-8DDB-88082B9C9507}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11001</v>
       </c>
@@ -817,7 +808,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11002</v>
       </c>
@@ -837,7 +828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11003</v>
       </c>
@@ -857,7 +848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11004</v>
       </c>
@@ -877,7 +868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11005</v>
       </c>
@@ -897,7 +888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11006</v>
       </c>
@@ -917,7 +908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11007</v>
       </c>
@@ -937,7 +928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11008</v>
       </c>
@@ -957,7 +948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11009</v>
       </c>
@@ -977,7 +968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11010</v>
       </c>
@@ -997,7 +988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11011</v>
       </c>
@@ -1017,7 +1008,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11012</v>
       </c>
@@ -1037,7 +1028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11013</v>
       </c>
@@ -1057,7 +1048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11014</v>
       </c>
@@ -1077,7 +1068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11015</v>
       </c>
@@ -1097,7 +1088,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11016</v>
       </c>
@@ -1117,7 +1108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11017</v>
       </c>
@@ -1137,7 +1128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11018</v>
       </c>
@@ -1157,7 +1148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11019</v>
       </c>
@@ -1177,7 +1168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11020</v>
       </c>
@@ -1197,7 +1188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11021</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>11022</v>
       </c>
@@ -1237,7 +1228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11023</v>
       </c>
@@ -1257,7 +1248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>11024</v>
       </c>
@@ -1277,7 +1268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>11025</v>
       </c>
@@ -1297,7 +1288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>11026</v>
       </c>
@@ -1317,7 +1308,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>11027</v>
       </c>
@@ -1337,7 +1328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>11028</v>
       </c>
@@ -1357,7 +1348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>11029</v>
       </c>
@@ -1377,7 +1368,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>11030</v>
       </c>
@@ -1397,7 +1388,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11031</v>
       </c>
@@ -1417,7 +1408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11032</v>
       </c>
@@ -1437,7 +1428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>11033</v>
       </c>
@@ -1457,7 +1448,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>11034</v>
       </c>
@@ -1477,7 +1468,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>11035</v>
       </c>
@@ -1497,7 +1488,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>11036</v>
       </c>
@@ -1517,7 +1508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>11037</v>
       </c>
@@ -1537,7 +1528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>11038</v>
       </c>
@@ -1557,7 +1548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>11039</v>
       </c>
@@ -1577,7 +1568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>11040</v>
       </c>
@@ -1597,7 +1588,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>11041</v>
       </c>
@@ -1617,7 +1608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>11042</v>
       </c>
@@ -1637,7 +1628,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11043</v>
       </c>
@@ -1657,7 +1648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>11044</v>
       </c>
@@ -1677,7 +1668,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>11045</v>
       </c>
@@ -1697,7 +1688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11046</v>
       </c>
@@ -1717,7 +1708,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>11047</v>
       </c>
@@ -1737,7 +1728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>11048</v>
       </c>
@@ -1757,7 +1748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>11049</v>
       </c>
@@ -1777,7 +1768,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>11050</v>
       </c>
@@ -1797,7 +1788,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>11051</v>
       </c>
@@ -1817,7 +1808,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>11052</v>
       </c>
@@ -1837,7 +1828,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>11053</v>
       </c>
@@ -1857,7 +1848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>11054</v>
       </c>
@@ -1877,7 +1868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11055</v>
       </c>
@@ -1897,7 +1888,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11056</v>
       </c>
@@ -1917,7 +1908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>11057</v>
       </c>
@@ -1937,7 +1928,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11058</v>
       </c>
@@ -1957,7 +1948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>11059</v>
       </c>
@@ -1977,7 +1968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>11060</v>
       </c>
@@ -1997,7 +1988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>11061</v>
       </c>
@@ -2017,7 +2008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>11062</v>
       </c>
@@ -2037,7 +2028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>11063</v>
       </c>
@@ -2057,7 +2048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>11064</v>
       </c>
@@ -2077,7 +2068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>11065</v>
       </c>
@@ -2097,7 +2088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>11066</v>
       </c>
@@ -2117,7 +2108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>11067</v>
       </c>
@@ -2137,7 +2128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>11068</v>
       </c>
@@ -2157,7 +2148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>11069</v>
       </c>
@@ -2177,7 +2168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>11070</v>
       </c>
@@ -2197,7 +2188,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>11071</v>
       </c>
@@ -2217,7 +2208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>11072</v>
       </c>
@@ -2237,7 +2228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>11073</v>
       </c>
@@ -2257,7 +2248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>11074</v>
       </c>
@@ -2277,7 +2268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>11075</v>
       </c>
@@ -2297,7 +2288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>11076</v>
       </c>
@@ -2317,7 +2308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>11077</v>
       </c>
@@ -2337,7 +2328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>11078</v>
       </c>
@@ -2357,7 +2348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>11079</v>
       </c>
@@ -2377,7 +2368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>11080</v>
       </c>
@@ -2397,7 +2388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>11081</v>
       </c>
@@ -2417,7 +2408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>11082</v>
       </c>
@@ -2437,7 +2428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>11083</v>
       </c>
@@ -2457,7 +2448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>11084</v>
       </c>
@@ -2477,7 +2468,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>11085</v>
       </c>
@@ -2497,7 +2488,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>11086</v>
       </c>
@@ -2517,7 +2508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>11087</v>
       </c>
@@ -2537,7 +2528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>11088</v>
       </c>
@@ -2557,7 +2548,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>11089</v>
       </c>
@@ -2577,7 +2568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>11090</v>
       </c>
@@ -2597,7 +2588,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>11091</v>
       </c>
@@ -2617,7 +2608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>11092</v>
       </c>
@@ -2637,7 +2628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>11093</v>
       </c>
@@ -2657,7 +2648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>11094</v>
       </c>
@@ -2677,7 +2668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>11095</v>
       </c>
@@ -2697,7 +2688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>11096</v>
       </c>
@@ -2717,7 +2708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>11097</v>
       </c>
@@ -2737,7 +2728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>11098</v>
       </c>
@@ -2757,7 +2748,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>11099</v>
       </c>
@@ -2777,7 +2768,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>11100</v>
       </c>
@@ -2797,7 +2788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>11101</v>
       </c>
@@ -2817,7 +2808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>11102</v>
       </c>
@@ -2837,7 +2828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>11103</v>
       </c>
@@ -2857,7 +2848,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>11104</v>
       </c>
@@ -2877,7 +2868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>11105</v>
       </c>
@@ -2897,7 +2888,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>11106</v>
       </c>
@@ -2917,7 +2908,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>11107</v>
       </c>
@@ -2937,7 +2928,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>11108</v>
       </c>
@@ -2957,7 +2948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>11109</v>
       </c>
@@ -2977,7 +2968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>11110</v>
       </c>
@@ -2997,7 +2988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>11111</v>
       </c>
@@ -3017,7 +3008,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>11112</v>
       </c>
@@ -3037,7 +3028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>11113</v>
       </c>
@@ -3057,7 +3048,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>11114</v>
       </c>
@@ -3077,7 +3068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>11115</v>
       </c>
@@ -3097,7 +3088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>11116</v>
       </c>
@@ -3117,7 +3108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>11117</v>
       </c>
@@ -3137,7 +3128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>11118</v>
       </c>
@@ -3157,7 +3148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>11119</v>
       </c>
@@ -3177,7 +3168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>11120</v>
       </c>
@@ -3197,7 +3188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>11121</v>
       </c>
@@ -3217,7 +3208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>11122</v>
       </c>
@@ -3237,7 +3228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>11123</v>
       </c>
@@ -3257,7 +3248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>11124</v>
       </c>
@@ -3277,7 +3268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>11125</v>
       </c>
@@ -3297,7 +3288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>11126</v>
       </c>
@@ -3317,7 +3308,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>11127</v>
       </c>
@@ -3337,7 +3328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>11128</v>
       </c>
@@ -3357,7 +3348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>11129</v>
       </c>
@@ -3377,7 +3368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>11130</v>
       </c>
@@ -3397,7 +3388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>11131</v>
       </c>
@@ -3417,7 +3408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>11132</v>
       </c>
@@ -3437,7 +3428,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>11133</v>
       </c>
@@ -3457,7 +3448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>11134</v>
       </c>
@@ -3477,7 +3468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>11135</v>
       </c>
@@ -3497,7 +3488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>11136</v>
       </c>
@@ -3517,7 +3508,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>11137</v>
       </c>
@@ -3537,7 +3528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>11138</v>
       </c>
@@ -3557,7 +3548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>11139</v>
       </c>
@@ -3577,7 +3568,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>11140</v>
       </c>
@@ -3597,7 +3588,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>11141</v>
       </c>
@@ -3617,7 +3608,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>11142</v>
       </c>
@@ -3637,7 +3628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>11143</v>
       </c>
@@ -3657,7 +3648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>11144</v>
       </c>
@@ -3677,7 +3668,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>11145</v>
       </c>
@@ -3697,7 +3688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>11146</v>
       </c>
@@ -3717,7 +3708,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>11147</v>
       </c>
@@ -3737,7 +3728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>11148</v>
       </c>
@@ -3757,7 +3748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>11149</v>
       </c>
@@ -3777,7 +3768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>11150</v>
       </c>
@@ -3797,7 +3788,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>11151</v>
       </c>
@@ -3817,7 +3808,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>11152</v>
       </c>
@@ -3837,7 +3828,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>11153</v>
       </c>
@@ -3857,7 +3848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>11154</v>
       </c>
@@ -3877,7 +3868,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>11155</v>
       </c>
@@ -3897,7 +3888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>11156</v>
       </c>
@@ -3917,7 +3908,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>11157</v>
       </c>
@@ -3937,7 +3928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>11158</v>
       </c>
@@ -3957,7 +3948,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>11159</v>
       </c>
@@ -3977,7 +3968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>11160</v>
       </c>
@@ -3997,7 +3988,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>11161</v>
       </c>
@@ -4017,7 +4008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>11162</v>
       </c>
@@ -4037,7 +4028,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>11163</v>
       </c>
@@ -4057,7 +4048,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>11164</v>
       </c>
@@ -4077,7 +4068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>11165</v>
       </c>
@@ -4097,7 +4088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>11166</v>
       </c>
@@ -4117,7 +4108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>11167</v>
       </c>
@@ -4137,7 +4128,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>11168</v>
       </c>

--- a/DataSheets/section.xlsx
+++ b/DataSheets/section.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA30AA1-65BD-4238-B28E-B9DA7D7B8DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402A6A28-879E-4BE0-9998-2634923E1CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0ED13E95-8516-4C16-8DBF-AE53EE052614}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0ED13E95-8516-4C16-8DBF-AE53EE052614}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417EED2E-BEF8-489B-8DDB-88082B9C9507}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
